--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det2  - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det2  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,31 +520,31 @@
         <v>0.153307554461641</v>
       </c>
       <c r="F2" t="n">
-        <v>8.488117529410808</v>
+        <v>8.651971006319151</v>
       </c>
       <c r="G2" t="n">
-        <v>7.393251733550424</v>
+        <v>7.405160994755866</v>
       </c>
       <c r="H2" t="n">
-        <v>9.633206979818109</v>
+        <v>9.838323441170894</v>
       </c>
       <c r="I2" t="n">
-        <v>1.570320754461527</v>
+        <v>1.600710017157438</v>
       </c>
       <c r="J2" t="n">
-        <v>1.326728022445281</v>
+        <v>1.26706293279254</v>
       </c>
       <c r="K2" t="n">
-        <v>1.836186046051618</v>
+        <v>1.877295042496091</v>
       </c>
       <c r="L2" t="n">
-        <v>0.124077798098334</v>
+        <v>0.1259838013027723</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1063352779418342</v>
+        <v>0.1043275539874963</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1414291347717794</v>
+        <v>0.1443046060300968</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0.0004310974903568659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1094243984250986</v>
+        <v>0.1059789297132179</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0008757296575548415</v>
+        <v>7.240790001257524e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2836860952324216</v>
+        <v>0.3022823134360977</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09306459553204863</v>
+        <v>0.0908312168431834</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0006415963324110519</v>
+        <v>6.205386501834856e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2464853090467113</v>
+        <v>0.2607515211087289</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1103040451736518</v>
+        <v>0.10701031826124</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0008690698854416255</v>
+        <v>7.26335646425335e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.286418677624781</v>
+        <v>0.3054671810784932</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12.00687180793019</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.974477778970852</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1537386519519979</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.75794993603237</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.405233402655877</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.14060575460699</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.691541234000621</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.267124986657559</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.13804656360482</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2329941195640122</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1044001875521388</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4497717871085901</v>
       </c>
     </row>
   </sheetData>
